--- a/biology/Zoologie/Chloropète_aquatique/Chloropète_aquatique.xlsx
+++ b/biology/Zoologie/Chloropète_aquatique/Chloropète_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chlorop%C3%A8te_aquatique</t>
+          <t>Chloropète_aquatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamonastides gracilirostris, Calamonastides
-Le Chloropète aquatique (Calamonastides gracilirostris), unique représentant du genre monotypique Calamonastides[3], est une espèce d'oiseaux d'Afrique de la famille des Acrocephalidae. C'est l'une des espèces qualifiées d'endémique du papyrus.
+Le Chloropète aquatique (Calamonastides gracilirostris), unique représentant du genre monotypique Calamonastides, est une espèce d'oiseaux d'Afrique de la famille des Acrocephalidae. C'est l'une des espèces qualifiées d'endémique du papyrus.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chlorop%C3%A8te_aquatique</t>
+          <t>Chloropète_aquatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Calamonastides gracilirostris a été initialement décrite en 1906 par William Robert Ogilvie-Grant sous le protonyme de Chloropeta gracilirostris.
-Le COI[1] ne reconnait qu'une cette seule espèce sous le genre Calamonastides.
+Le COI ne reconnait qu'une cette seule espèce sous le genre Calamonastides.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chlorop%C3%A8te_aquatique</t>
+          <t>Chloropète_aquatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Chloropète aquatique est un oiseau de petite taille (14 cm) avec le dos de couleur brun-olive à brun-roux et le ventre jaune avec des nuances olive sur le poitrail et les flancs.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chlorop%C3%A8te_aquatique</t>
+          <t>Chloropète_aquatique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Cet oiseau se nourrit de petits insectes.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se nourrit de petits insectes.
 </t>
         </is>
       </c>
@@ -589,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chlorop%C3%A8te_aquatique</t>
+          <t>Chloropète_aquatique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,13 +630,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-espèces et répartition
-D'après Alan P. Peterson, il existe les deux sous-espèces suivantes :
+          <t>Sous-espèces et répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après Alan P. Peterson, il existe les deux sous-espèces suivantes :
 Chloropeta gracilirostris gracilirostris (Ogilvie-Grant, 1906) : Burundi, Est de la République démocratique du Congo, Ouest du Kenya, Rwanda, Nord-Ouest de la Tanzanie, Ouest de l'Ouganda
-Chloropeta gracilirostris bensoni (Amadon, 1954) : embouchure de la rivière Luapula en Zambie, et peut-être dans les zones adjacentes de la République démocratique du Congo[4].
-Habitat
-Plus souvent entendu que vu, cet oiseau est généralement observé seul ou en couple dans les marais et marécages, ou en bordure des grands lacs africains. Il se trouve le plus souvent dans la partie sommitale des papyrus, et occasionnellement dans les roseaux.
-</t>
+Chloropeta gracilirostris bensoni (Amadon, 1954) : embouchure de la rivière Luapula en Zambie, et peut-être dans les zones adjacentes de la République démocratique du Congo.</t>
         </is>
       </c>
     </row>
@@ -625,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chlorop%C3%A8te_aquatique</t>
+          <t>Chloropète_aquatique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,16 +663,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus souvent entendu que vu, cet oiseau est généralement observé seul ou en couple dans les marais et marécages, ou en bordure des grands lacs africains. Il se trouve le plus souvent dans la partie sommitale des papyrus, et occasionnellement dans les roseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chloropète_aquatique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorop%C3%A8te_aquatique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Le Chloropète aquatique et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Statut et préservation
-Cette espèce est menacée par la disparition de son habitat, due au drainage des zones marécageuses, à l'expansion démographique, à l'envahissement des marais par la Jacinthe d'eau et par la destruction des papyrus par les humains et les incendies. Des actions visant à protéger les marais à papyrus sont en cours au Rwanda et sur la partie kényane du lac Victoria[4].
-Sa population, qui est en déclin, est estimée à moins de 10 000 individus, sur une aire de répartition très morcelée, ce qui justifie le classement de cette espèce par l'IUCN dans la catégorie VU C2a (vulnérable)[5].
-Philatélie
-La Zambie a émis un timbre à l'effigie de cet oiseau en 1988[6].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Statut et préservation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est menacée par la disparition de son habitat, due au drainage des zones marécageuses, à l'expansion démographique, à l'envahissement des marais par la Jacinthe d'eau et par la destruction des papyrus par les humains et les incendies. Des actions visant à protéger les marais à papyrus sont en cours au Rwanda et sur la partie kényane du lac Victoria.
+Sa population, qui est en déclin, est estimée à moins de 10 000 individus, sur une aire de répartition très morcelée, ce qui justifie le classement de cette espèce par l'IUCN dans la catégorie VU C2a (vulnérable).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chloropète_aquatique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlorop%C3%A8te_aquatique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le Chloropète aquatique et l'Homme</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Zambie a émis un timbre à l'effigie de cet oiseau en 1988.
 </t>
         </is>
       </c>
